--- a/res/CODIGOS.xlsx
+++ b/res/CODIGOS.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EWSD - Funcionalidades" sheetId="1" r:id="rId1"/>
     <sheet name="S12 - Funcionalidades" sheetId="2" r:id="rId2"/>
+    <sheet name="Mobilidade" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
   <si>
     <t>trarstr</t>
   </si>
@@ -487,13 +488,82 @@
   </si>
   <si>
     <t>Suspensão por falta pagamento</t>
+  </si>
+  <si>
+    <t>Passos Principais</t>
+  </si>
+  <si>
+    <t>Eliminar número</t>
+  </si>
+  <si>
+    <t>Criar Anúncio</t>
+  </si>
+  <si>
+    <t>Criar Número</t>
+  </si>
+  <si>
+    <t>Carregar Facilidades</t>
+  </si>
+  <si>
+    <t>COM Origem</t>
+  </si>
+  <si>
+    <t>COM Destino</t>
+  </si>
+  <si>
+    <t>Eliminar Número</t>
+  </si>
+  <si>
+    <t>Analogico</t>
+  </si>
+  <si>
+    <t>RDIS S\DDIS</t>
+  </si>
+  <si>
+    <t>RDIS C\DDIS</t>
+  </si>
+  <si>
+    <t>5292:dn=k'[NUM]</t>
+  </si>
+  <si>
+    <t>Eliminar Número e MSN's</t>
+  </si>
+  <si>
+    <t>5292:dn=k'[NUM],scope=allmsn</t>
+  </si>
+  <si>
+    <t>Ver Anúncio</t>
+  </si>
+  <si>
+    <t>5476:AREACODE=K'[Indicativo],DN=K'[NUM]</t>
+  </si>
+  <si>
+    <t>5468:annm=move,areacode=k'[Indicativo],dn=k'[NUM]</t>
+  </si>
+  <si>
+    <t>6885:areacode=k'[Indicativo],dn=k'[NUM],remove;</t>
+  </si>
+  <si>
+    <t>Eliminar Anúncio</t>
+  </si>
+  <si>
+    <t>Necessário Criar anuncio em NGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5289:dn=k'[NUM],lan=[],na=h'[],subtyp=dsubs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5289:dn=k'[NUM]&amp;[k'[]],lan=[],msn=set,na=h'[],subtyp=dsubs </t>
+  </si>
+  <si>
+    <t>5289:DN=k'[NUM],LAN=[],na=h'[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,16 +579,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -526,11 +629,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,6 +725,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,7 +1039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1908,4 +2124,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="15" width="13.77734375" customWidth="1"/>
+    <col min="16" max="19" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="D16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/res/CODIGOS.xlsx
+++ b/res/CODIGOS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032" tabRatio="370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EWSD - Funcionalidades" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="188">
   <si>
     <t>trarstr</t>
   </si>
@@ -490,80 +490,113 @@
     <t>Suspensão por falta pagamento</t>
   </si>
   <si>
-    <t>Passos Principais</t>
-  </si>
-  <si>
-    <t>Eliminar número</t>
-  </si>
-  <si>
-    <t>Criar Anúncio</t>
-  </si>
-  <si>
-    <t>Criar Número</t>
-  </si>
-  <si>
-    <t>Carregar Facilidades</t>
-  </si>
-  <si>
-    <t>COM Origem</t>
-  </si>
-  <si>
-    <t>COM Destino</t>
-  </si>
-  <si>
-    <t>Eliminar Número</t>
-  </si>
-  <si>
-    <t>Analogico</t>
-  </si>
-  <si>
-    <t>RDIS S\DDIS</t>
-  </si>
-  <si>
-    <t>RDIS C\DDIS</t>
-  </si>
-  <si>
-    <t>5292:dn=k'[NUM]</t>
-  </si>
-  <si>
-    <t>Eliminar Número e MSN's</t>
-  </si>
-  <si>
-    <t>5292:dn=k'[NUM],scope=allmsn</t>
-  </si>
-  <si>
-    <t>Ver Anúncio</t>
-  </si>
-  <si>
-    <t>5476:AREACODE=K'[Indicativo],DN=K'[NUM]</t>
-  </si>
-  <si>
-    <t>5468:annm=move,areacode=k'[Indicativo],dn=k'[NUM]</t>
-  </si>
-  <si>
-    <t>6885:areacode=k'[Indicativo],dn=k'[NUM],remove;</t>
-  </si>
-  <si>
-    <t>Eliminar Anúncio</t>
-  </si>
-  <si>
-    <t>Necessário Criar anuncio em NGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5289:dn=k'[NUM],lan=[],na=h'[],subtyp=dsubs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5289:dn=k'[NUM]&amp;[k'[]],lan=[],msn=set,na=h'[],subtyp=dsubs </t>
-  </si>
-  <si>
     <t>5289:DN=k'[NUM],LAN=[],na=h'[]</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>apagar dn</t>
+  </si>
+  <si>
+    <t>5292:DN=K'[NUM];</t>
+  </si>
+  <si>
+    <t>5292:dn=k'[NUM],scope=allmsn;</t>
+  </si>
+  <si>
+    <t>5369:DN=K'[NUM];</t>
+  </si>
+  <si>
+    <t>criar anuncio</t>
+  </si>
+  <si>
+    <t>5468:annm=move,areacode=k'[IND],dn=k'[NUM];</t>
+  </si>
+  <si>
+    <t>ver anuncio</t>
+  </si>
+  <si>
+    <t>5476:AREACODE=K'[IND],DN=K'[NUM];</t>
+  </si>
+  <si>
+    <t>criar dn</t>
+  </si>
+  <si>
+    <t>5289:dn=k'[NUM]&amp;k'[MSN],lan=[],msn=set,na=h'[],subtyp=dsubs</t>
+  </si>
+  <si>
+    <t>5368:ddidnrng=k'[First]&amp;&amp;k'[LAST],dn=k'[NUM],protocol=dss1,subtyp=ddipabx;</t>
+  </si>
+  <si>
+    <t>apagar cpt</t>
+  </si>
+  <si>
+    <t>cancpt:dn=[NUM],incept=unobde0,orig1=1;</t>
+  </si>
+  <si>
+    <t>apagar sub</t>
+  </si>
+  <si>
+    <t>cansub:dn=[NUM];</t>
+  </si>
+  <si>
+    <t>canpbx:dn=[NUM]</t>
+  </si>
+  <si>
+    <t>moddn:dn=[DN],incept=porteddn-D020[COD][DN];</t>
+  </si>
+  <si>
+    <t>crdn:dn=[DN],lac=20;</t>
+  </si>
+  <si>
+    <t>criar cpt</t>
+  </si>
+  <si>
+    <t>crcpt:code=[DN],tratyp=cptdn,lac=20,orig1=256/DEF;</t>
+  </si>
+  <si>
+    <t>criar sub</t>
+  </si>
+  <si>
+    <t>crsub:dn=[DN],cat=ms,eqn=[],orig1=[],orig2=[],chrg=deb,ncf=2;</t>
+  </si>
+  <si>
+    <t>crsub:dn=[DN],eqn=[],cat=iba,serv=nonvcgrp&amp;voicegrp,lnatt=msn,cos=stiprot&amp;fctprot,orig1=[],orig2=[],chrg=deb,optrcl=4;</t>
+  </si>
+  <si>
+    <t>crpbx:dn=[DN],opmode=ibw,serv=allgrp,optrcl=4,opn=[DN-PRIMEIRO],chrg=deb,hunt=nonseq,dino=1,ssdi=9,cos=ddi,eos=sign;</t>
+  </si>
+  <si>
+    <t>criar msn\ddi</t>
+  </si>
+  <si>
+    <t>crsub:dn=[MSN],eqn=[],cat=iba,serv=nonvcgrp&amp;voicegrp,lnatt=msn,cos=stiprot&amp;fctprot,orig1=[],orig2=[],chrg=deb,optrcl=4;</t>
+  </si>
+  <si>
+    <t>crpbxln:dn=[DN],opmode=ibw,lno=1,eqn=[],cat=iba,lnatt=lay1hold&amp;lay2hold&amp;pttopt,orig1=[],orig2=[];</t>
+  </si>
+  <si>
+    <t>crpbxln:dn=[DN],opmode=ibw,lno=2,eqn=[],cat=iba,lnatt=lay1hold&amp;lay2hold&amp;pttopt,orig1=[],orig2=[];</t>
+  </si>
+  <si>
+    <t>criar ddis</t>
+  </si>
+  <si>
+    <t>5368:acctype=dbabw,lan=[LAN],na=h'[NA],refdn=k'[NUM]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,33 +613,134 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -616,12 +750,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -659,48 +919,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -712,11 +930,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,39 +1094,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1 2" xfId="2"/>
+    <cellStyle name="20% - Accent2 2" xfId="3"/>
+    <cellStyle name="20% - Accent3 2" xfId="4"/>
+    <cellStyle name="20% - Accent4 2" xfId="5"/>
+    <cellStyle name="20% - Accent5 2" xfId="6"/>
+    <cellStyle name="20% - Accent6 2" xfId="7"/>
+    <cellStyle name="40% - Accent1 2" xfId="8"/>
+    <cellStyle name="40% - Accent2 2" xfId="9"/>
+    <cellStyle name="40% - Accent3 2" xfId="10"/>
+    <cellStyle name="40% - Accent4 2" xfId="11"/>
+    <cellStyle name="40% - Accent5 2" xfId="12"/>
+    <cellStyle name="40% - Accent6 2" xfId="13"/>
+    <cellStyle name="60% - Accent1 2" xfId="14"/>
+    <cellStyle name="60% - Accent2 2" xfId="15"/>
+    <cellStyle name="60% - Accent3 2" xfId="16"/>
+    <cellStyle name="60% - Accent4 2" xfId="17"/>
+    <cellStyle name="60% - Accent5 2" xfId="18"/>
+    <cellStyle name="60% - Accent6 2" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="21"/>
+    <cellStyle name="Accent3 2" xfId="22"/>
+    <cellStyle name="Accent4 2" xfId="23"/>
+    <cellStyle name="Accent5 2" xfId="24"/>
+    <cellStyle name="Accent6 2" xfId="25"/>
+    <cellStyle name="Bad 2" xfId="26"/>
+    <cellStyle name="Calculation 2" xfId="27"/>
+    <cellStyle name="Check Cell 2" xfId="28"/>
+    <cellStyle name="Explanatory Text 2" xfId="29"/>
+    <cellStyle name="Good 2" xfId="30"/>
+    <cellStyle name="Heading 1 2" xfId="31"/>
+    <cellStyle name="Heading 2 2" xfId="32"/>
+    <cellStyle name="Heading 3 2" xfId="33"/>
+    <cellStyle name="Heading 4 2" xfId="34"/>
+    <cellStyle name="Input 2" xfId="35"/>
+    <cellStyle name="Linked Cell 2" xfId="36"/>
+    <cellStyle name="Neutral 2" xfId="37"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note 2" xfId="38"/>
+    <cellStyle name="Output 2" xfId="39"/>
+    <cellStyle name="Title 2" xfId="40"/>
+    <cellStyle name="Total 2" xfId="41"/>
+    <cellStyle name="Warning Text 2" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2128,325 +2559,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="15" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="124.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="128.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="13.77734375" customWidth="1"/>
     <col min="16" max="19" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="C12" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="D12" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B15" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D26" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="B17" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="D16:G16"/>
+  <mergeCells count="9">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
